--- a/Code/Results/Cases/Case_3_141/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_141/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8400046633917668</v>
+        <v>0.3589764260989341</v>
       </c>
       <c r="C2">
-        <v>0.2166810502370424</v>
+        <v>0.08360667578511993</v>
       </c>
       <c r="D2">
-        <v>0.03685986500447314</v>
+        <v>0.05061001181340075</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.191161679556856</v>
+        <v>1.349655725240893</v>
       </c>
       <c r="G2">
-        <v>0.0008080285804663075</v>
+        <v>0.002479245429810422</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6962657445736298</v>
+        <v>0.9558457619222835</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.034417873951867</v>
+        <v>0.4297665996791409</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.761796271176465</v>
+        <v>0.8804075373533919</v>
       </c>
       <c r="N2">
-        <v>1.247853075087221</v>
+        <v>2.111938390888881</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7273017649418136</v>
+        <v>0.3289256157109151</v>
       </c>
       <c r="C3">
-        <v>0.1871861756814326</v>
+        <v>0.07573555820522415</v>
       </c>
       <c r="D3">
-        <v>0.03754726372652151</v>
+        <v>0.05049673220658057</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.101555921841225</v>
+        <v>1.332582306571013</v>
       </c>
       <c r="G3">
-        <v>0.0008139401478006392</v>
+        <v>0.002482830265372861</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6627616412688937</v>
+        <v>0.951168184292726</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8951200902324672</v>
+        <v>0.3926304161402641</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.349050221731531</v>
+        <v>0.7842511887856745</v>
       </c>
       <c r="N3">
-        <v>1.266683782839308</v>
+        <v>2.121121224336548</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6586909618890218</v>
+        <v>0.3106449085542238</v>
       </c>
       <c r="C4">
-        <v>0.1693183758310965</v>
+        <v>0.07094173045319963</v>
       </c>
       <c r="D4">
-        <v>0.03795448636978271</v>
+        <v>0.050421909669641</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.048697353237998</v>
+        <v>1.322806394695263</v>
       </c>
       <c r="G4">
-        <v>0.0008176627939707326</v>
+        <v>0.002485146351551603</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6434504999267148</v>
+        <v>0.9487337199949479</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8104220506161255</v>
+        <v>0.3700324168403597</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.104763575453745</v>
+        <v>0.7257502559203601</v>
       </c>
       <c r="N4">
-        <v>1.280012205463635</v>
+        <v>2.127396451580395</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6308585624856562</v>
+        <v>0.3032383976656945</v>
       </c>
       <c r="C5">
-        <v>0.1620895997755269</v>
+        <v>0.06899796044446305</v>
       </c>
       <c r="D5">
-        <v>0.03811718095229999</v>
+        <v>0.05039010496669682</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.027654102279655</v>
+        <v>1.319000074330376</v>
       </c>
       <c r="G5">
-        <v>0.0008192044400178372</v>
+        <v>0.002486119187485514</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6358740074661426</v>
+        <v>0.9478514642141675</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7760865807795483</v>
+        <v>0.3608748152908561</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.007118468878701</v>
+        <v>0.7020400007382648</v>
       </c>
       <c r="N5">
-        <v>1.285863927676274</v>
+        <v>2.130113453164419</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.626244096952604</v>
+        <v>0.3020111545649229</v>
       </c>
       <c r="C6">
-        <v>0.1608922041730381</v>
+        <v>0.0686757859737952</v>
       </c>
       <c r="D6">
-        <v>0.03814401294592606</v>
+        <v>0.05038474478324595</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.024188634685288</v>
+        <v>1.318378743385438</v>
       </c>
       <c r="G6">
-        <v>0.0008194619520117685</v>
+        <v>0.002486282481351303</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6346329675792504</v>
+        <v>0.947711591902646</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7703952326969841</v>
+        <v>0.3593572998545937</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.991009081252386</v>
+        <v>0.6981105613342322</v>
       </c>
       <c r="N6">
-        <v>1.286860327243446</v>
+        <v>2.130574249849481</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6583151168551353</v>
+        <v>0.3105448473812089</v>
       </c>
       <c r="C7">
-        <v>0.1692206841101296</v>
+        <v>0.0709154766918374</v>
       </c>
       <c r="D7">
-        <v>0.03795669309473659</v>
+        <v>0.05042148604572638</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.048411602078545</v>
+        <v>1.322754343382272</v>
       </c>
       <c r="G7">
-        <v>0.000817683483817424</v>
+        <v>0.002485159353893328</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6433471647606126</v>
+        <v>0.9487213772692016</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8099583003721875</v>
+        <v>0.3699087066059121</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.103439471798936</v>
+        <v>0.7254299756410916</v>
       </c>
       <c r="N7">
-        <v>1.28008945214944</v>
+        <v>2.127432447481837</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8010092363165029</v>
+        <v>0.3485795597422054</v>
       </c>
       <c r="C8">
-        <v>0.206455687763679</v>
+        <v>0.0808845600643906</v>
       </c>
       <c r="D8">
-        <v>0.03710026716135495</v>
+        <v>0.05057205293461919</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.159788352527102</v>
+        <v>1.343621774461141</v>
       </c>
       <c r="G8">
-        <v>0.0008100484130257549</v>
+        <v>0.002480457675919709</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6844367691423798</v>
+        <v>0.9541419710223806</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9861970855305628</v>
+        <v>0.4169197549115324</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.617327106716246</v>
+        <v>0.8471370122441186</v>
       </c>
       <c r="N8">
-        <v>1.253964267049071</v>
+        <v>2.11497221496488</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.086546334682652</v>
+        <v>0.4245180805817768</v>
       </c>
       <c r="C9">
-        <v>0.2818129796408186</v>
+        <v>0.1007481758850872</v>
       </c>
       <c r="D9">
-        <v>0.03527795995799998</v>
+        <v>0.05082503836042385</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.397654077246969</v>
+        <v>1.390176188015786</v>
       </c>
       <c r="G9">
-        <v>0.0007957474130535212</v>
+        <v>0.00247214551978132</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7762263635228379</v>
+        <v>0.9682557229324118</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.339848340365421</v>
+        <v>0.5107291909346259</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.719263046891257</v>
+        <v>1.090384298347274</v>
       </c>
       <c r="N9">
-        <v>1.21794686579247</v>
+        <v>2.095608480631029</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.301401120245004</v>
+        <v>0.4811394471417714</v>
       </c>
       <c r="C10">
-        <v>0.3392545379906267</v>
+        <v>0.1155410229135327</v>
       </c>
       <c r="D10">
-        <v>0.03380976537125946</v>
+        <v>0.05098450296551604</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.587957626155102</v>
+        <v>1.427849939661243</v>
       </c>
       <c r="G10">
-        <v>0.0007855407342996264</v>
+        <v>0.002466585667826954</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8524268662354899</v>
+        <v>0.9807680028700005</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.606810376433117</v>
+        <v>0.5806525490231991</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.624740213215787</v>
+        <v>1.272328531190368</v>
       </c>
       <c r="N10">
-        <v>1.202657936849548</v>
+        <v>2.084497447249376</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.40063679624734</v>
+        <v>0.5070795082767745</v>
       </c>
       <c r="C11">
-        <v>0.3660036135989344</v>
+        <v>0.1223156049172474</v>
       </c>
       <c r="D11">
-        <v>0.03310132707280644</v>
+        <v>0.05105118189069913</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.67888640284913</v>
+        <v>1.445750437737814</v>
       </c>
       <c r="G11">
-        <v>0.0007809317410256171</v>
+        <v>0.002464173785545226</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8895099388973691</v>
+        <v>0.9869297897579017</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.730363828125434</v>
+        <v>0.6126833767688424</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.069478210751086</v>
+        <v>1.355899441115312</v>
       </c>
       <c r="N11">
-        <v>1.198633372408224</v>
+        <v>2.080124652546516</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.438465911218003</v>
+        <v>0.5169285920377718</v>
       </c>
       <c r="C12">
-        <v>0.3762377206190592</v>
+        <v>0.1248875747016314</v>
       </c>
       <c r="D12">
-        <v>0.03282584395726218</v>
+        <v>0.05107557758200443</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.714043780000921</v>
+        <v>1.452639107305714</v>
       </c>
       <c r="G12">
-        <v>0.0007791880306117392</v>
+        <v>0.002463277235750506</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.9039520608220926</v>
+        <v>0.9893309806177086</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.77750559626395</v>
+        <v>0.6248447023730819</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.24399957834477</v>
+        <v>1.387669027987187</v>
       </c>
       <c r="N12">
-        <v>1.197581417024097</v>
+        <v>2.078567265399272</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.430306982218667</v>
+        <v>0.5148062548219343</v>
       </c>
       <c r="C13">
-        <v>0.3740286846879428</v>
+        <v>0.1243333609903914</v>
       </c>
       <c r="D13">
-        <v>0.03288552125529165</v>
+        <v>0.05107036169980361</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.706438032793301</v>
+        <v>1.451150602679235</v>
       </c>
       <c r="G13">
-        <v>0.000779563559134641</v>
+        <v>0.002463469578967398</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.900822994547255</v>
+        <v>0.9888108186723485</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.76733611841621</v>
+        <v>0.6222241228702217</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.206114772066314</v>
+        <v>1.380821282044678</v>
       </c>
       <c r="N13">
-        <v>1.197786078557883</v>
+        <v>2.078898288367057</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.403743780209226</v>
+        <v>0.5078892750585453</v>
       </c>
       <c r="C14">
-        <v>0.3668433804482163</v>
+        <v>0.1225270700496424</v>
       </c>
       <c r="D14">
-        <v>0.03307881678691871</v>
+        <v>0.05105320612090836</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.681763675467863</v>
+        <v>1.446314962533307</v>
       </c>
       <c r="G14">
-        <v>0.0007807882742321357</v>
+        <v>0.002464099690304122</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8906897630240209</v>
+        <v>0.987125975582444</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.734234786288766</v>
+        <v>0.6136832562313828</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.083704263096365</v>
+        <v>1.358510633183485</v>
       </c>
       <c r="N14">
-        <v>1.198537045350662</v>
+        <v>2.079994548644351</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.387506813497737</v>
+        <v>0.5036558263719826</v>
       </c>
       <c r="C15">
-        <v>0.3624563317842728</v>
+        <v>0.1214215242439707</v>
       </c>
       <c r="D15">
-        <v>0.03319622892637497</v>
+        <v>0.05104258626638369</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.666747488486251</v>
+        <v>1.443367351414622</v>
       </c>
       <c r="G15">
-        <v>0.0007815385467684344</v>
+        <v>0.002464487833837556</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8845365963338025</v>
+        <v>0.9861028059738643</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.71400708080418</v>
+        <v>0.6084558884365094</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.009568310848834</v>
+        <v>1.344860974677346</v>
       </c>
       <c r="N15">
-        <v>1.199060161257847</v>
+        <v>2.080678880861427</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.29494891307283</v>
+        <v>0.47944786880268</v>
       </c>
       <c r="C16">
-        <v>0.3375201782444321</v>
+        <v>0.1150992049761328</v>
       </c>
       <c r="D16">
-        <v>0.03385513774990834</v>
+        <v>0.05098002641855359</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.582110906874959</v>
+        <v>1.426695485550283</v>
       </c>
       <c r="G16">
-        <v>0.0007858423650435733</v>
+        <v>0.00246674564281424</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8500562928294002</v>
+        <v>0.9803747953317909</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.598782596974615</v>
+        <v>0.5785637308684386</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.59644557274305</v>
+        <v>1.266883786078935</v>
       </c>
       <c r="N16">
-        <v>1.202984061073153</v>
+        <v>2.084796976763926</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.23857524503606</v>
+        <v>0.4646437767029568</v>
       </c>
       <c r="C17">
-        <v>0.3223917268985019</v>
+        <v>0.1112323087520508</v>
       </c>
       <c r="D17">
-        <v>0.0342480990028271</v>
+        <v>0.05094013851091184</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.531369961014363</v>
+        <v>1.41666348133802</v>
       </c>
       <c r="G17">
-        <v>0.0007884892398558</v>
+        <v>0.002468160718373325</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8295573590970591</v>
+        <v>0.9769813981800155</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.528671502097694</v>
+        <v>0.5602827877274308</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.352281758904468</v>
+        <v>1.219258426971081</v>
       </c>
       <c r="N17">
-        <v>1.206175299568372</v>
+        <v>2.087498220412371</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.206289206935452</v>
+        <v>0.4561460602680825</v>
       </c>
       <c r="C18">
-        <v>0.3137474060275451</v>
+        <v>0.1090124260182961</v>
       </c>
       <c r="D18">
-        <v>0.03447040374245702</v>
+        <v>0.05091664491308201</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.50258864951266</v>
+        <v>1.410965079991342</v>
       </c>
       <c r="G18">
-        <v>0.0007900150940314946</v>
+        <v>0.002468985680753877</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8179910481180244</v>
+        <v>0.9750738165367636</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.488540785976426</v>
+        <v>0.5497890019261149</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.214832720978933</v>
+        <v>1.191940752640733</v>
       </c>
       <c r="N18">
-        <v>1.208283171887189</v>
+        <v>2.089116037622233</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.195380490190246</v>
+        <v>0.4532718385761143</v>
       </c>
       <c r="C19">
-        <v>0.3108299564391359</v>
+        <v>0.1082615401185194</v>
       </c>
       <c r="D19">
-        <v>0.03454507036941301</v>
+        <v>0.0509085960698048</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.492910386431646</v>
+        <v>1.409048006187646</v>
       </c>
       <c r="G19">
-        <v>0.0007905324011447136</v>
+        <v>0.002469266899325845</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8141119573140898</v>
+        <v>0.9744355267352915</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.474985293348738</v>
+        <v>0.5462395818210553</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.168772072638518</v>
+        <v>1.182704141719341</v>
       </c>
       <c r="N19">
-        <v>1.209042227870597</v>
+        <v>2.089674803427528</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.244561727382717</v>
+        <v>0.4662179177881569</v>
       </c>
       <c r="C20">
-        <v>0.3239961520082772</v>
+        <v>0.1116435056613057</v>
       </c>
       <c r="D20">
-        <v>0.03420666105881942</v>
+        <v>0.05094444176801716</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.536729001410393</v>
+        <v>1.41772397675291</v>
       </c>
       <c r="G20">
-        <v>0.0007882071407167683</v>
+        <v>0.002468008938401489</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8317159628241342</v>
+        <v>0.9773380534078839</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.536114378741757</v>
+        <v>0.5622266594417056</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.377955456942729</v>
+        <v>1.224320393630478</v>
       </c>
       <c r="N20">
-        <v>1.20580705846605</v>
+        <v>2.087204027471714</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.411538932484632</v>
+        <v>0.5099202511169381</v>
       </c>
       <c r="C21">
-        <v>0.3689508965505013</v>
+        <v>0.1230574422161226</v>
       </c>
       <c r="D21">
-        <v>0.0330222499298749</v>
+        <v>0.05105826840154393</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.688990598657668</v>
+        <v>1.447732314159666</v>
       </c>
       <c r="G21">
-        <v>0.0007804285320689684</v>
+        <v>0.002463914156707139</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8936548353471281</v>
+        <v>0.987619010939369</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.743947385506914</v>
+        <v>0.6161910489750539</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.11948018840198</v>
+        <v>1.365060409660018</v>
       </c>
       <c r="N21">
-        <v>1.19830320954118</v>
+        <v>2.07966987348756</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.522148582985125</v>
+        <v>0.5386345907023156</v>
       </c>
       <c r="C22">
-        <v>0.3989513999146652</v>
+        <v>0.1305555145111441</v>
       </c>
       <c r="D22">
-        <v>0.03220516683092356</v>
+        <v>0.05112767681145058</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.792785250340359</v>
+        <v>1.467986707984096</v>
       </c>
       <c r="G22">
-        <v>0.0007753520035574342</v>
+        <v>0.00246133572908048</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9364958810059534</v>
+        <v>0.9947338638159877</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.881874125303881</v>
+        <v>0.6516460948743941</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.640711038677637</v>
+        <v>1.457763291514866</v>
       </c>
       <c r="N22">
-        <v>1.196180805006264</v>
+        <v>2.075320199408083</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.462966041975761</v>
+        <v>0.5232953102449756</v>
       </c>
       <c r="C23">
-        <v>0.3828769973619899</v>
+        <v>0.1265501124665036</v>
       </c>
       <c r="D23">
-        <v>0.03264576212381343</v>
+        <v>0.05109109192709127</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.736958988538902</v>
+        <v>1.457117630287541</v>
       </c>
       <c r="G23">
-        <v>0.000778062092960786</v>
+        <v>0.002462702971081501</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.9133951194657612</v>
+        <v>0.9909002346154665</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.808049804056651</v>
+        <v>0.6327060402578866</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.358589883683564</v>
+        <v>1.408217489974319</v>
       </c>
       <c r="N23">
-        <v>1.197039902651397</v>
+        <v>2.07758899281491</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.241854855320696</v>
+        <v>0.4655062070011127</v>
       </c>
       <c r="C24">
-        <v>0.3232706267941978</v>
+        <v>0.111457593429833</v>
       </c>
       <c r="D24">
-        <v>0.03422540631142645</v>
+        <v>0.05094249801374318</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.534304970595301</v>
+        <v>1.417244311483486</v>
       </c>
       <c r="G24">
-        <v>0.0007883346646327529</v>
+        <v>0.002468077522495148</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8307393803460172</v>
+        <v>0.9771766746451576</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.532748906423393</v>
+        <v>0.5613477846656565</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.366339368976455</v>
+        <v>1.222031683529451</v>
       </c>
       <c r="N24">
-        <v>1.205972693063899</v>
+        <v>2.08733683018535</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.008533581608503</v>
+        <v>0.4038294134049636</v>
       </c>
       <c r="C25">
-        <v>0.2611134335712677</v>
+        <v>0.0953401291125715</v>
       </c>
       <c r="D25">
-        <v>0.035790125811479</v>
+        <v>0.05076119074236729</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.330870586092843</v>
+        <v>1.376975202016894</v>
       </c>
       <c r="G25">
-        <v>0.0007995545079209254</v>
+        <v>0.002474297646926749</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7500107664230597</v>
+        <v>0.9640626504190948</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.243097106115613</v>
+        <v>0.4851763492342513</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.407631758211011</v>
+        <v>1.02404443596437</v>
       </c>
       <c r="N25">
-        <v>1.225880735869026</v>
+        <v>2.100301548883252</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_141/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_141/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3589764260989341</v>
+        <v>0.84000466339171</v>
       </c>
       <c r="C2">
-        <v>0.08360667578511993</v>
+        <v>0.2166810502370282</v>
       </c>
       <c r="D2">
-        <v>0.05061001181340075</v>
+        <v>0.03685986500430438</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.349655725240893</v>
+        <v>1.19116167955687</v>
       </c>
       <c r="G2">
-        <v>0.002479245429810422</v>
+        <v>0.0008080285804922755</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9558457619222835</v>
+        <v>0.696265744573644</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4297665996791409</v>
+        <v>1.034417873951924</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8804075373533919</v>
+        <v>2.761796271176451</v>
       </c>
       <c r="N2">
-        <v>2.111938390888881</v>
+        <v>1.247853075087178</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3289256157109151</v>
+        <v>0.7273017649418705</v>
       </c>
       <c r="C3">
-        <v>0.07573555820522415</v>
+        <v>0.1871861756814042</v>
       </c>
       <c r="D3">
-        <v>0.05049673220658057</v>
+        <v>0.03754726372656414</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.332582306571013</v>
+        <v>1.101555921841225</v>
       </c>
       <c r="G3">
-        <v>0.002482830265372861</v>
+        <v>0.0008139401477996129</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.951168184292726</v>
+        <v>0.6627616412688866</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3926304161402641</v>
+        <v>0.895120090232524</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7842511887856745</v>
+        <v>2.349050221731574</v>
       </c>
       <c r="N3">
-        <v>2.121121224336548</v>
+        <v>1.266683782839294</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3106449085542238</v>
+        <v>0.6586909618890218</v>
       </c>
       <c r="C4">
-        <v>0.07094173045319963</v>
+        <v>0.1693183758309686</v>
       </c>
       <c r="D4">
-        <v>0.050421909669641</v>
+        <v>0.03795448636996923</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.322806394695263</v>
+        <v>1.048697353237998</v>
       </c>
       <c r="G4">
-        <v>0.002485146351551603</v>
+        <v>0.0008176627939373351</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.9487337199949479</v>
+        <v>0.6434504999267148</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3700324168403597</v>
+        <v>0.8104220506160971</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7257502559203601</v>
+        <v>2.104763575453731</v>
       </c>
       <c r="N4">
-        <v>2.127396451580395</v>
+        <v>1.28001220546362</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3032383976656945</v>
+        <v>0.6308585624856562</v>
       </c>
       <c r="C5">
-        <v>0.06899796044446305</v>
+        <v>0.1620895997756264</v>
       </c>
       <c r="D5">
-        <v>0.05039010496669682</v>
+        <v>0.0381171809521792</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.319000074330376</v>
+        <v>1.027654102279641</v>
       </c>
       <c r="G5">
-        <v>0.002486119187485514</v>
+        <v>0.0008192044400832663</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.9478514642141675</v>
+        <v>0.6358740074661284</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3608748152908561</v>
+        <v>0.7760865807796051</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7020400007382648</v>
+        <v>2.007118468878701</v>
       </c>
       <c r="N5">
-        <v>2.130113453164419</v>
+        <v>1.285863927676317</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3020111545649229</v>
+        <v>0.6262440969525471</v>
       </c>
       <c r="C6">
-        <v>0.0686757859737952</v>
+        <v>0.1608922041729244</v>
       </c>
       <c r="D6">
-        <v>0.05038474478324595</v>
+        <v>0.03814401294599179</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.318378743385438</v>
+        <v>1.02418863468526</v>
       </c>
       <c r="G6">
-        <v>0.002486282481351303</v>
+        <v>0.0008194619519828782</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.947711591902646</v>
+        <v>0.634632967579229</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3593572998545937</v>
+        <v>0.7703952326970693</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6981105613342322</v>
+        <v>1.991009081252386</v>
       </c>
       <c r="N6">
-        <v>2.130574249849481</v>
+        <v>1.28686032724346</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3105448473812089</v>
+        <v>0.6583151168551638</v>
       </c>
       <c r="C7">
-        <v>0.0709154766918374</v>
+        <v>0.1692206841099875</v>
       </c>
       <c r="D7">
-        <v>0.05042148604572638</v>
+        <v>0.03795669309480054</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.322754343382272</v>
+        <v>1.048411602078545</v>
       </c>
       <c r="G7">
-        <v>0.002485159353893328</v>
+        <v>0.0008176834837811827</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.9487213772692016</v>
+        <v>0.643347164760641</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3699087066059121</v>
+        <v>0.8099583003720454</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7254299756410916</v>
+        <v>2.103439471798922</v>
       </c>
       <c r="N7">
-        <v>2.127432447481837</v>
+        <v>1.280089452149483</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3485795597422054</v>
+        <v>0.8010092363165029</v>
       </c>
       <c r="C8">
-        <v>0.0808845600643906</v>
+        <v>0.2064556877636932</v>
       </c>
       <c r="D8">
-        <v>0.05057205293461919</v>
+        <v>0.03710026716130699</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.343621774461141</v>
+        <v>1.159788352527087</v>
       </c>
       <c r="G8">
-        <v>0.002480457675919709</v>
+        <v>0.0008100484129961368</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9541419710223806</v>
+        <v>0.6844367691423798</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4169197549115324</v>
+        <v>0.9861970855305344</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8471370122441186</v>
+        <v>2.617327106716203</v>
       </c>
       <c r="N8">
-        <v>2.11497221496488</v>
+        <v>1.253964267049057</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4245180805817768</v>
+        <v>1.086546334682652</v>
       </c>
       <c r="C9">
-        <v>0.1007481758850872</v>
+        <v>0.2818129796409892</v>
       </c>
       <c r="D9">
-        <v>0.05082503836042385</v>
+        <v>0.03527795995798577</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.390176188015786</v>
+        <v>1.397654077246955</v>
       </c>
       <c r="G9">
-        <v>0.00247214551978132</v>
+        <v>0.0007957474131225032</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.9682557229324118</v>
+        <v>0.7762263635228237</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5107291909346259</v>
+        <v>1.339848340365506</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.090384298347274</v>
+        <v>3.719263046891285</v>
       </c>
       <c r="N9">
-        <v>2.095608480631029</v>
+        <v>1.217946865792442</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4811394471417714</v>
+        <v>1.301401120244975</v>
       </c>
       <c r="C10">
-        <v>0.1155410229135327</v>
+        <v>0.339254537990513</v>
       </c>
       <c r="D10">
-        <v>0.05098450296551604</v>
+        <v>0.0338097653712488</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.427849939661243</v>
+        <v>1.587957626155131</v>
       </c>
       <c r="G10">
-        <v>0.002466585667826954</v>
+        <v>0.0007855407342695903</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.9807680028700005</v>
+        <v>0.8524268662354899</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5806525490231991</v>
+        <v>1.606810376433089</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.272328531190368</v>
+        <v>4.624740213215787</v>
       </c>
       <c r="N10">
-        <v>2.084497447249376</v>
+        <v>1.202657936849533</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5070795082767745</v>
+        <v>1.400636796247312</v>
       </c>
       <c r="C11">
-        <v>0.1223156049172474</v>
+        <v>0.3660036135993039</v>
       </c>
       <c r="D11">
-        <v>0.05105118189069913</v>
+        <v>0.03310132707271407</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.445750437737814</v>
+        <v>1.678886402849145</v>
       </c>
       <c r="G11">
-        <v>0.002464173785545226</v>
+        <v>0.0007809317409797229</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.9869297897579017</v>
+        <v>0.8895099388973833</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6126833767688424</v>
+        <v>1.730363828125377</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.355899441115312</v>
+        <v>5.069478210751129</v>
       </c>
       <c r="N11">
-        <v>2.080124652546516</v>
+        <v>1.198633372408281</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5169285920377718</v>
+        <v>1.438465911218202</v>
       </c>
       <c r="C12">
-        <v>0.1248875747016314</v>
+        <v>0.3762377206191729</v>
       </c>
       <c r="D12">
-        <v>0.05107557758200443</v>
+        <v>0.0328258439571556</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.452639107305714</v>
+        <v>1.714043780000893</v>
       </c>
       <c r="G12">
-        <v>0.002463277235750506</v>
+        <v>0.000779188030580524</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.9893309806177086</v>
+        <v>0.9039520608220926</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6248447023730819</v>
+        <v>1.777505596263921</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.387669027987187</v>
+        <v>5.243999578344756</v>
       </c>
       <c r="N12">
-        <v>2.078567265399272</v>
+        <v>1.197581417024082</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5148062548219343</v>
+        <v>1.430306982218639</v>
       </c>
       <c r="C13">
-        <v>0.1243333609903914</v>
+        <v>0.3740286846877723</v>
       </c>
       <c r="D13">
-        <v>0.05107036169980361</v>
+        <v>0.03288552125538047</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.451150602679235</v>
+        <v>1.706438032793315</v>
       </c>
       <c r="G13">
-        <v>0.002463469578967398</v>
+        <v>0.0007795635590887029</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9888108186723485</v>
+        <v>0.9008229945472621</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6222241228702217</v>
+        <v>1.767336118416182</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.380821282044678</v>
+        <v>5.206114772066286</v>
       </c>
       <c r="N13">
-        <v>2.078898288367057</v>
+        <v>1.19778607855794</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5078892750585453</v>
+        <v>1.403743780209055</v>
       </c>
       <c r="C14">
-        <v>0.1225270700496424</v>
+        <v>0.3668433804481879</v>
       </c>
       <c r="D14">
-        <v>0.05105320612090836</v>
+        <v>0.03307881678700042</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.446314962533307</v>
+        <v>1.681763675467877</v>
       </c>
       <c r="G14">
-        <v>0.002464099690304122</v>
+        <v>0.0007807882742293397</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.987125975582444</v>
+        <v>0.890689763024028</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6136832562313828</v>
+        <v>1.734234786288795</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.358510633183485</v>
+        <v>5.083704263096394</v>
       </c>
       <c r="N14">
-        <v>2.079994548644351</v>
+        <v>1.198537045350619</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5036558263719826</v>
+        <v>1.387506813497794</v>
       </c>
       <c r="C15">
-        <v>0.1214215242439707</v>
+        <v>0.3624563317841591</v>
       </c>
       <c r="D15">
-        <v>0.05104258626638369</v>
+        <v>0.03319622892625773</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.443367351414622</v>
+        <v>1.666747488486251</v>
       </c>
       <c r="G15">
-        <v>0.002464487833837556</v>
+        <v>0.000781538546842399</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9861028059738643</v>
+        <v>0.8845365963338025</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6084558884365094</v>
+        <v>1.714007080804208</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.344860974677346</v>
+        <v>5.009568310848834</v>
       </c>
       <c r="N15">
-        <v>2.080678880861427</v>
+        <v>1.199060161257847</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.47944786880268</v>
+        <v>1.294948913072858</v>
       </c>
       <c r="C16">
-        <v>0.1150992049761328</v>
+        <v>0.3375201782445458</v>
       </c>
       <c r="D16">
-        <v>0.05098002641855359</v>
+        <v>0.03385513774973781</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.426695485550283</v>
+        <v>1.582110906874945</v>
       </c>
       <c r="G16">
-        <v>0.00246674564281424</v>
+        <v>0.0007858423651329863</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.9803747953317909</v>
+        <v>0.8500562928294002</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5785637308684386</v>
+        <v>1.598782596974701</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.266883786078935</v>
+        <v>4.596445572742994</v>
       </c>
       <c r="N16">
-        <v>2.084796976763926</v>
+        <v>1.202984061073167</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4646437767029568</v>
+        <v>1.238575245036003</v>
       </c>
       <c r="C17">
-        <v>0.1112323087520508</v>
+        <v>0.3223917268983882</v>
       </c>
       <c r="D17">
-        <v>0.05094013851091184</v>
+        <v>0.03424809900285375</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.41666348133802</v>
+        <v>1.531369961014377</v>
       </c>
       <c r="G17">
-        <v>0.002468160718373325</v>
+        <v>0.0007884892398984444</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9769813981800155</v>
+        <v>0.8295573590970662</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5602827877274308</v>
+        <v>1.528671502097637</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.219258426971081</v>
+        <v>4.352281758904397</v>
       </c>
       <c r="N17">
-        <v>2.087498220412371</v>
+        <v>1.206175299568343</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4561460602680825</v>
+        <v>1.206289206935395</v>
       </c>
       <c r="C18">
-        <v>0.1090124260182961</v>
+        <v>0.3137474060277725</v>
       </c>
       <c r="D18">
-        <v>0.05091664491308201</v>
+        <v>0.03447040374257249</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.410965079991342</v>
+        <v>1.50258864951266</v>
       </c>
       <c r="G18">
-        <v>0.002468985680753877</v>
+        <v>0.0007900150940318273</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9750738165367636</v>
+        <v>0.8179910481180173</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5497890019261149</v>
+        <v>1.488540785976397</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.191940752640733</v>
+        <v>4.214832720978947</v>
       </c>
       <c r="N18">
-        <v>2.089116037622233</v>
+        <v>1.208283171887174</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4532718385761143</v>
+        <v>1.195380490190331</v>
       </c>
       <c r="C19">
-        <v>0.1082615401185194</v>
+        <v>0.3108299564390791</v>
       </c>
       <c r="D19">
-        <v>0.0509085960698048</v>
+        <v>0.03454507036963861</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.409048006187646</v>
+        <v>1.49291038643166</v>
       </c>
       <c r="G19">
-        <v>0.002469266899325845</v>
+        <v>0.000790532401230184</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.9744355267352915</v>
+        <v>0.8141119573140827</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5462395818210553</v>
+        <v>1.474985293348766</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.182704141719341</v>
+        <v>4.168772072638504</v>
       </c>
       <c r="N19">
-        <v>2.089674803427528</v>
+        <v>1.209042227870555</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4662179177881569</v>
+        <v>1.244561727382774</v>
       </c>
       <c r="C20">
-        <v>0.1116435056613057</v>
+        <v>0.3239961520082772</v>
       </c>
       <c r="D20">
-        <v>0.05094444176801716</v>
+        <v>0.03420666105890291</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.41772397675291</v>
+        <v>1.536729001410393</v>
       </c>
       <c r="G20">
-        <v>0.002468008938401489</v>
+        <v>0.0007882071407019781</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9773380534078839</v>
+        <v>0.8317159628241271</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5622266594417056</v>
+        <v>1.536114378741757</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.224320393630478</v>
+        <v>4.377955456942701</v>
       </c>
       <c r="N20">
-        <v>2.087204027471714</v>
+        <v>1.20580705846605</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5099202511169381</v>
+        <v>1.41153893248466</v>
       </c>
       <c r="C21">
-        <v>0.1230574422161226</v>
+        <v>0.3689508965509276</v>
       </c>
       <c r="D21">
-        <v>0.05105826840154393</v>
+        <v>0.0330222499298678</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.447732314159666</v>
+        <v>1.688990598657682</v>
       </c>
       <c r="G21">
-        <v>0.002463914156707139</v>
+        <v>0.0007804285320502898</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.987619010939369</v>
+        <v>0.8936548353471281</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6161910489750539</v>
+        <v>1.743947385506857</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.365060409660018</v>
+        <v>5.119480188402008</v>
       </c>
       <c r="N21">
-        <v>2.07966987348756</v>
+        <v>1.198303209541137</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5386345907023156</v>
+        <v>1.522148582985125</v>
       </c>
       <c r="C22">
-        <v>0.1305555145111441</v>
+        <v>0.3989513999147221</v>
       </c>
       <c r="D22">
-        <v>0.05112767681145058</v>
+        <v>0.03220516683111896</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.467986707984096</v>
+        <v>1.792785250340359</v>
       </c>
       <c r="G22">
-        <v>0.00246133572908048</v>
+        <v>0.0007753520035558324</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9947338638159877</v>
+        <v>0.9364958810059818</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6516460948743941</v>
+        <v>1.881874125303852</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.457763291514866</v>
+        <v>5.640711038677594</v>
       </c>
       <c r="N22">
-        <v>2.075320199408083</v>
+        <v>1.196180805006222</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5232953102449756</v>
+        <v>1.462966041975847</v>
       </c>
       <c r="C23">
-        <v>0.1265501124665036</v>
+        <v>0.3828769973619899</v>
       </c>
       <c r="D23">
-        <v>0.05109109192709127</v>
+        <v>0.03264576212380632</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.457117630287541</v>
+        <v>1.736958988538902</v>
       </c>
       <c r="G23">
-        <v>0.002462702971081501</v>
+        <v>0.0007780620929600577</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.9909002346154665</v>
+        <v>0.9133951194657541</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6327060402578866</v>
+        <v>1.808049804056708</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.408217489974319</v>
+        <v>5.358589883683536</v>
       </c>
       <c r="N23">
-        <v>2.07758899281491</v>
+        <v>1.197039902651412</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4655062070011127</v>
+        <v>1.241854855320781</v>
       </c>
       <c r="C24">
-        <v>0.111457593429833</v>
+        <v>0.3232706267943115</v>
       </c>
       <c r="D24">
-        <v>0.05094249801374318</v>
+        <v>0.03422540631122928</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.417244311483486</v>
+        <v>1.534304970595272</v>
       </c>
       <c r="G24">
-        <v>0.002468077522495148</v>
+        <v>0.0007883346646329945</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9771766746451576</v>
+        <v>0.8307393803460172</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5613477846656565</v>
+        <v>1.53274890642345</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.222031683529451</v>
+        <v>4.366339368976426</v>
       </c>
       <c r="N24">
-        <v>2.08733683018535</v>
+        <v>1.205972693063842</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4038294134049636</v>
+        <v>1.008533581608503</v>
       </c>
       <c r="C25">
-        <v>0.0953401291125715</v>
+        <v>0.2611134335712393</v>
       </c>
       <c r="D25">
-        <v>0.05076119074236729</v>
+        <v>0.03579012581139018</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.376975202016894</v>
+        <v>1.330870586092843</v>
       </c>
       <c r="G25">
-        <v>0.002474297646926749</v>
+        <v>0.0007995545079593987</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.9640626504190948</v>
+        <v>0.7500107664230882</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4851763492342513</v>
+        <v>1.243097106115641</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.02404443596437</v>
+        <v>3.407631758210997</v>
       </c>
       <c r="N25">
-        <v>2.100301548883252</v>
+        <v>1.225880735869112</v>
       </c>
       <c r="O25">
         <v>0</v>
